--- a/user_credentials.xlsx
+++ b/user_credentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22362dc4db7c0dcc/Desktop/sales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC289168-3196-48C4-B4D7-4D7510B249B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{EC289168-3196-48C4-B4D7-4D7510B249B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66CBC0F4-92FB-4916-B0CF-3A51DEC35FFE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -34,28 +34,22 @@
     <t>riya</t>
   </si>
   <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>alice</t>
-  </si>
-  <si>
     <t>riya.techicom</t>
   </si>
   <si>
-    <t>pass123</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>editor</t>
   </si>
   <si>
-    <t>viewer</t>
-  </si>
-  <si>
     <t>kumash</t>
+  </si>
+  <si>
+    <t>maulik</t>
+  </si>
+  <si>
+    <t>te#ch$1234</t>
   </si>
 </sst>
 </file>
@@ -426,7 +420,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,43 +444,32 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/user_credentials.xlsx
+++ b/user_credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22362dc4db7c0dcc/Desktop/sales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{EC289168-3196-48C4-B4D7-4D7510B249B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66CBC0F4-92FB-4916-B0CF-3A51DEC35FFE}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{EC289168-3196-48C4-B4D7-4D7510B249B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5195113A-8ACD-4E41-A79D-1545E422E962}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,14 +461,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
